--- a/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_diem_sinh_vien_1.xlsx
+++ b/kma_mm/kma_be/src/exports/phulucbang/phu_luc_bang_diem_sinh_vien_1.xlsx
@@ -49,7 +49,7 @@
     <t>lập trình cb</t>
   </si>
   <si>
-    <t>C+</t>
+    <t>C</t>
   </si>
   <si>
     <t/>
@@ -638,10 +638,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="5">
-        <v>6.99</v>
+        <v>6.43</v>
       </c>
       <c r="I7" s="5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>12</v>
